--- a/biology/Biologie cellulaire et moléculaire/Matthias_Lütolf/Matthias_Lütolf.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Matthias_Lütolf/Matthias_Lütolf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Matthias_L%C3%BCtolf</t>
+          <t>Matthias_Lütolf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Matthias Lütolf, né en 1973, est un ingénieur biomédical suisse. Il est professeur ordinaire à l'Institut de bio-ingénierie et à l'Institut des sciences et ingénierie chimiques de l'École polytechnique fédérale de Lausanne (EPFL) depuis 2018, où il dirige le Laboratoire de bio-ingénierie des cellules souches.
-Depuis 2021, il est aussi le directeur scientifique de l'Institute for Translational Biology de Roche à Bâle[1].
+Depuis 2021, il est aussi le directeur scientifique de l'Institute for Translational Biology de Roche à Bâle.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Matthias_L%C3%BCtolf</t>
+          <t>Matthias_Lütolf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matthias Lütolf naît en 1973[2]. 
-Il reçoit un diplôme en génie des matériaux de l'École polytechnique fédérale de Zurich (ETHZ) en 1999. Il y effectue par la suite ses études doctorales sous la direction de Jeffrey Hubbell jusqu'en 2003[3]. Sa thèse de doctorat est récompensée par une médaille de l'ETHZ[N 1] en 2004.  
-De 2005 à 2007, l'obtention d'une bourse postdoctorale lui permet de poursuivre sa carrière dans le laboratoire d'Helen Blau en biologie des cellules souches à l'Université de Stanford[4],[5].  
-En 2007, il rejoint l'École polytechnique fédérale de Lausanne (EPFL) pour fonder son propre groupe de recherche. Il y est nommé professeur associé en 2014, puis professeur ordinaire en 2018 à la Faculté des sciences de la vie. Il est directeur de l'Institut de bio-ingénierie de l'EPFL de 2014 à 2018[4],[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matthias Lütolf naît en 1973. 
+Il reçoit un diplôme en génie des matériaux de l'École polytechnique fédérale de Zurich (ETHZ) en 1999. Il y effectue par la suite ses études doctorales sous la direction de Jeffrey Hubbell jusqu'en 2003. Sa thèse de doctorat est récompensée par une médaille de l'ETHZ[N 1] en 2004.  
+De 2005 à 2007, l'obtention d'une bourse postdoctorale lui permet de poursuivre sa carrière dans le laboratoire d'Helen Blau en biologie des cellules souches à l'Université de Stanford,.  
+En 2007, il rejoint l'École polytechnique fédérale de Lausanne (EPFL) pour fonder son propre groupe de recherche. Il y est nommé professeur associé en 2014, puis professeur ordinaire en 2018 à la Faculté des sciences de la vie. Il est directeur de l'Institut de bio-ingénierie de l'EPFL de 2014 à 2018,. 
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Matthias_L%C3%BCtolf</t>
+          <t>Matthias_Lütolf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les recherches menées par Matthias Lütolf et son équipe se concentrent sur la bio-ingénierie des organoïdes, générés à partir de cellules souches auto-organisées. Son laboratoire cherche également à comprendre la façon dont des micro-environnements tridimensionnels complexes contrôlent le comportement des cellules souches[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les recherches menées par Matthias Lütolf et son équipe se concentrent sur la bio-ingénierie des organoïdes, générés à partir de cellules souches auto-organisées. Son laboratoire cherche également à comprendre la façon dont des micro-environnements tridimensionnels complexes contrôlent le comportement des cellules souches.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Matthias_L%C3%BCtolf</t>
+          <t>Matthias_Lütolf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,19 +593,21 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Adhésions : 
-Membre élu de l'Organisation européenne de biologie moléculaire (EMBO) (2018)[6]
+Membre élu de l'Organisation européenne de biologie moléculaire (EMBO) (2018)
 Prix : 
 Médaille ETH, thèse de doctorat (2004)
-Prix du jeune chercheur européen (EURYI) (2007)[7]
+Prix du jeune chercheur européen (EURYI) (2007)
 Éditeur : 
-Biomaterials Science, éditeur associé[8]
+Biomaterials Science, éditeur associé
 Scientific Reports, membre du comité de rédaction
 Startups : 
-QGel [9],[10],[11]
-SUN Bioscience [12],[13]</t>
+QGel 
+SUN Bioscience ,</t>
         </is>
       </c>
     </row>
